--- a/sample.xlsx
+++ b/sample.xlsx
@@ -1,46 +1,62 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aha/Desktop/Python/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17620"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="4">
   <si>
-    <t>中文可以嗎</t>
+    <t>Cust_No</t>
   </si>
   <si>
-    <t>亂說</t>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>分類</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -56,16 +72,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -353,51 +374,187 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="n">
-        <v>42</v>
-      </c>
-      <c r="C1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="n">
-        <v>42708.05514495525</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>1</v>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <f>SUM(C1, C2)</f>
-        <v/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>